--- a/doc/接口文档.xlsx
+++ b/doc/接口文档.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19590" windowHeight="8970" activeTab="2"/>
+    <workbookView windowWidth="19590" windowHeight="8970" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="跑批会话列表" sheetId="1" r:id="rId1"/>
     <sheet name="规则碰撞" sheetId="2" r:id="rId2"/>
     <sheet name="会话明细查询" sheetId="3" r:id="rId3"/>
+    <sheet name="管理标签接口" sheetId="4" r:id="rId4"/>
+    <sheet name="管理规则接口" sheetId="5" r:id="rId5"/>
+    <sheet name="查询汇总接口" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96">
   <si>
     <t>接口名称</t>
   </si>
@@ -157,6 +160,153 @@
   </si>
   <si>
     <t>结束时间</t>
+  </si>
+  <si>
+    <t>查询标签树</t>
+  </si>
+  <si>
+    <t>/service/tag/findAll/{channelId}</t>
+  </si>
+  <si>
+    <t>channelId</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>渠道ID</t>
+  </si>
+  <si>
+    <t>tagId</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>新建标签ID</t>
+  </si>
+  <si>
+    <t>tagText</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>标签文本</t>
+  </si>
+  <si>
+    <t>activated</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>激活标识</t>
+  </si>
+  <si>
+    <t>customizable</t>
+  </si>
+  <si>
+    <t>自定义标识</t>
+  </si>
+  <si>
+    <t>parentId</t>
+  </si>
+  <si>
+    <t>父级标签ID</t>
+  </si>
+  <si>
+    <t>tagNo</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>标签编号</t>
+  </si>
+  <si>
+    <t>rules[]</t>
+  </si>
+  <si>
+    <t>标签ID</t>
+  </si>
+  <si>
+    <t>ruleId</t>
+  </si>
+  <si>
+    <t>规则ID</t>
+  </si>
+  <si>
+    <t>ruleExps</t>
+  </si>
+  <si>
+    <t>priorityNo</t>
+  </si>
+  <si>
+    <t>优先权编号</t>
+  </si>
+  <si>
+    <t>childrens[]</t>
+  </si>
+  <si>
+    <t>创建标签</t>
+  </si>
+  <si>
+    <t>/service/tag/create</t>
+  </si>
+  <si>
+    <t>更新标签</t>
+  </si>
+  <si>
+    <t>/service/tag/update</t>
+  </si>
+  <si>
+    <t>创建规则</t>
+  </si>
+  <si>
+    <t>/service/rule/create</t>
+  </si>
+  <si>
+    <t>ALL/AUD/CMT/OL(全部/语音/评论/在线)</t>
+  </si>
+  <si>
+    <t>ALL/CSC/CUST(全部/客服/客户)</t>
+  </si>
+  <si>
+    <t>更新规则</t>
+  </si>
+  <si>
+    <t>/service/rule/update</t>
+  </si>
+  <si>
+    <t>删除规则</t>
+  </si>
+  <si>
+    <t>/service/rule/delete</t>
+  </si>
+  <si>
+    <t>查询单标签汇总</t>
+  </si>
+  <si>
+    <t>/service/tag/collect/findOne</t>
+  </si>
+  <si>
+    <t>tagIds</t>
+  </si>
+  <si>
+    <t>Long[]</t>
+  </si>
+  <si>
+    <t>daterangeForm</t>
+  </si>
+  <si>
+    <t>起始日期</t>
+  </si>
+  <si>
+    <t>daterangeTo</t>
+  </si>
+  <si>
+    <t>结束日期</t>
   </si>
 </sst>
 </file>
@@ -164,10 +314,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -191,7 +341,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,7 +349,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,13 +365,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,8 +386,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,29 +469,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -295,40 +477,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,25 +517,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,7 +529,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,6 +565,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -427,19 +631,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,31 +661,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,13 +673,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,36 +685,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -567,6 +717,30 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -607,6 +781,73 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -622,7 +863,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,62 +886,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,10 +899,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -724,7 +911,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -733,128 +920,128 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -870,62 +1057,77 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1249,7 +1451,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1327,16 +1529,16 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="28"/>
       <c r="G4" s="6" t="s">
         <v>14</v>
       </c>
@@ -1347,7 +1549,7 @@
       <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="5"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
@@ -1371,8 +1573,8 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="5"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1395,8 +1597,8 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="5"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1419,38 +1621,38 @@
       </c>
     </row>
     <row r="8" ht="53" customHeight="1" spans="1:10">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
       <c r="J9" s="19"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="23"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
@@ -1560,7 +1762,7 @@
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:10">
-      <c r="A4" s="5"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
@@ -1584,8 +1786,8 @@
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:10">
-      <c r="A5" s="5"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1608,8 +1810,8 @@
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:10">
-      <c r="A6" s="5"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1632,8 +1834,8 @@
       <c r="J6" s="6"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:10">
-      <c r="A7" s="5"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1656,8 +1858,8 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:10">
-      <c r="A8" s="5"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -1678,60 +1880,60 @@
       <c r="J8" s="6"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="53" customHeight="1" spans="1:10">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:10">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
       <c r="J10" s="19"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:10">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="25"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:10">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1754,8 +1956,8 @@
   <sheetPr/>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1833,7 +2035,7 @@
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:10">
-      <c r="A4" s="5"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
@@ -1857,8 +2059,8 @@
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:10">
-      <c r="A5" s="5"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1881,8 +2083,8 @@
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:10">
-      <c r="A6" s="5"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1905,8 +2107,8 @@
       <c r="J6" s="6"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:10">
-      <c r="A7" s="5"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1929,60 +2131,60 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="53" customHeight="1" spans="1:10">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:10">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
       <c r="J9" s="19"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:10">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="25"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:10">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1998,4 +2200,2521 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K63"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29" style="1" customWidth="1"/>
+    <col min="6" max="7" width="8.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="40.625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:10">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:10">
+      <c r="A4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="6">
+        <v>20</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:10">
+      <c r="A5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:10">
+      <c r="A6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="19"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:10">
+      <c r="A7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="15"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:10">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="15"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:10">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:10">
+      <c r="A10" s="13"/>
+      <c r="B10" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="17">
+        <v>20</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:10">
+      <c r="A11" s="13"/>
+      <c r="B11" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:10">
+      <c r="A12" s="13"/>
+      <c r="B12" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="17">
+        <v>20</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:10">
+      <c r="A13" s="13"/>
+      <c r="B13" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="17">
+        <v>11</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:10">
+      <c r="A14" s="13"/>
+      <c r="B14" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:10">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:10">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:10">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="15">
+        <v>20</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" s="17"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:10">
+      <c r="A18" s="13"/>
+      <c r="B18" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="17">
+        <v>4</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:10">
+      <c r="A19" s="13"/>
+      <c r="B19" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="17">
+        <v>4</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" s="17"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:10">
+      <c r="A20" s="13"/>
+      <c r="B20" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="17">
+        <v>200</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" s="17"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:10">
+      <c r="A21" s="13"/>
+      <c r="B21" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="17">
+        <v>11</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="J21" s="17"/>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:10">
+      <c r="A22" s="13"/>
+      <c r="B22" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:10">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="J23" s="17"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:10">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J24" s="17"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:10">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J25" s="17"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:10">
+      <c r="A26" s="13"/>
+      <c r="B26" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="17">
+        <v>20</v>
+      </c>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="J26" s="17"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:10">
+      <c r="A27" s="13"/>
+      <c r="B27" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="J27" s="17"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:10">
+      <c r="A28" s="13"/>
+      <c r="B28" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="17">
+        <v>20</v>
+      </c>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="J28" s="17"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:10">
+      <c r="A29" s="13"/>
+      <c r="B29" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="17">
+        <v>11</v>
+      </c>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="J29" s="17"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:11">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="6">
+        <v>20</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J34" s="6"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="9"/>
+      <c r="B35" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="6">
+        <v>20</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J35" s="6"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="9"/>
+      <c r="B36" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="6">
+        <v>200</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J36" s="6"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="11"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="19"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="J39" s="15"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="13"/>
+      <c r="B40" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J40" s="15"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="13"/>
+      <c r="B41" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J41" s="15"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="13"/>
+      <c r="B42" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="17">
+        <v>20</v>
+      </c>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="J42" s="17"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="13"/>
+      <c r="B43" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="J43" s="17"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="13"/>
+      <c r="B44" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="17">
+        <v>20</v>
+      </c>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="J44" s="17"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="13"/>
+      <c r="B45" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" s="17">
+        <v>11</v>
+      </c>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="J45" s="17"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="3"/>
+      <c r="B49" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" s="6">
+        <v>20</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J50" s="6"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="7"/>
+      <c r="B51" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" s="6">
+        <v>20</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J51" s="6"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="7"/>
+      <c r="B52" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J52" s="6"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="7"/>
+      <c r="B53" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="6">
+        <v>200</v>
+      </c>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J53" s="6"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="20"/>
+      <c r="B54" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54" s="6">
+        <v>20</v>
+      </c>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J54" s="6"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="11"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="19"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="J57" s="15"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="13"/>
+      <c r="B58" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J58" s="15"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="13"/>
+      <c r="B59" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J59" s="15"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="13"/>
+      <c r="B60" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D60" s="17">
+        <v>20</v>
+      </c>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="J60" s="17"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="13"/>
+      <c r="B61" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="J61" s="17"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="13"/>
+      <c r="B62" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D62" s="17">
+        <v>20</v>
+      </c>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="J62" s="17"/>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="13"/>
+      <c r="B63" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D63" s="17">
+        <v>11</v>
+      </c>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="J63" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="B55:J55"/>
+    <mergeCell ref="B56:J56"/>
+    <mergeCell ref="A7:A29"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A39:A45"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="A57:A63"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11:I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="8.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="40.625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:10">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="6">
+        <v>20</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:10">
+      <c r="A5" s="7"/>
+      <c r="B5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="6">
+        <v>20</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:10">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6">
+        <v>4</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:10">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="6">
+        <v>4</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:10">
+      <c r="A8" s="20"/>
+      <c r="B8" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="6">
+        <v>200</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="53" customHeight="1" spans="1:10">
+      <c r="A9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:10">
+      <c r="A10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:10">
+      <c r="A11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="15"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:10">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="15"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:10">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="15">
+        <v>20</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="15"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:10">
+      <c r="A14" s="13"/>
+      <c r="B14" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="17">
+        <v>4</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:10">
+      <c r="A15" s="13"/>
+      <c r="B15" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="17">
+        <v>4</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:10">
+      <c r="A16" s="13"/>
+      <c r="B16" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="17">
+        <v>200</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:10">
+      <c r="A17" s="13"/>
+      <c r="B17" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="17">
+        <v>11</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" s="17"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="6">
+        <v>20</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="7"/>
+      <c r="B23" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="6">
+        <v>20</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="6">
+        <v>4</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="6">
+        <v>4</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="20"/>
+      <c r="B26" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="6">
+        <v>200</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="19"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J29" s="15"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J30" s="15"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="15">
+        <v>20</v>
+      </c>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="J31" s="15"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="13"/>
+      <c r="B32" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="17">
+        <v>4</v>
+      </c>
+      <c r="E32" s="18"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" s="17"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="13"/>
+      <c r="B33" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="17">
+        <v>4</v>
+      </c>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J33" s="17"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="13"/>
+      <c r="B34" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="17">
+        <v>200</v>
+      </c>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J34" s="17"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="13"/>
+      <c r="B35" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="17">
+        <v>11</v>
+      </c>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="J35" s="17"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="3"/>
+      <c r="B39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="6">
+        <v>20</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J40" s="6"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="7"/>
+      <c r="B41" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="6">
+        <v>20</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J41" s="6"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="11"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="19"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+    </row>
+    <row r="51" ht="13.5"/>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="B42:J42"/>
+    <mergeCell ref="B43:J43"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A40:A41"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="8.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="40.625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:10">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="6">
+        <v>20</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:10">
+      <c r="A5" s="7"/>
+      <c r="B5" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="6">
+        <v>20</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:10">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6">
+        <v>4</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:10">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="6">
+        <v>4</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:10">
+      <c r="A8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:10">
+      <c r="A9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="19"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:10">
+      <c r="A10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="15"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:10">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="15"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:10">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="15">
+        <v>20</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="15"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:10">
+      <c r="A13" s="13"/>
+      <c r="B13" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="17">
+        <v>4</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:10">
+      <c r="A14" s="13"/>
+      <c r="B14" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="17">
+        <v>4</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:10">
+      <c r="A15" s="13"/>
+      <c r="B15" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="17">
+        <v>200</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:10">
+      <c r="A16" s="13"/>
+      <c r="B16" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="17">
+        <v>11</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A10:A16"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/doc/接口文档.xlsx
+++ b/doc/接口文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19590" windowHeight="8970" activeTab="5"/>
+    <workbookView windowWidth="28695" windowHeight="13650" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="跑批会话列表" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124">
   <si>
     <t>接口名称</t>
   </si>
@@ -183,9 +183,6 @@
     <t>tagText</t>
   </si>
   <si>
-    <t>200</t>
-  </si>
-  <si>
     <t>标签文本</t>
   </si>
   <si>
@@ -222,9 +219,6 @@
     <t>rules[&lt;Rule&gt;]</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>tagId</t>
   </si>
   <si>
@@ -369,16 +363,34 @@
     <t>indexType</t>
   </si>
   <si>
-    <t>FREQ/CALL(碰撞次数/会话)</t>
-  </si>
-  <si>
     <t>排序字段</t>
   </si>
   <si>
-    <t>size</t>
+    <t>limit</t>
   </si>
   <si>
     <t>数据长度</t>
+  </si>
+  <si>
+    <t>paging</t>
+  </si>
+  <si>
+    <t>sort[&lt;Sort&gt;]</t>
+  </si>
+  <si>
+    <t>property</t>
+  </si>
+  <si>
+    <t>FREQ/CALL(碰撞次数/会话次数)</t>
+  </si>
+  <si>
+    <t>direction</t>
+  </si>
+  <si>
+    <t>DESC/ASC(由大到小/由小到大)</t>
+  </si>
+  <si>
+    <t>排序规则</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1125,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1192,12 +1204,33 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1215,9 +1248,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1643,13 +1673,13 @@
       <c r="A4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="41"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
       <c r="G4" s="8" t="s">
         <v>14</v>
       </c>
@@ -1757,10 +1787,10 @@
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="26"/>
+      <c r="J9" s="31"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="41" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="20"/>
@@ -2016,26 +2046,26 @@
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
-      <c r="J10" s="26"/>
+      <c r="J10" s="31"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:10">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="44"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:10">
-      <c r="A12" s="35"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="20"/>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
@@ -2068,7 +2098,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2267,26 +2297,26 @@
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="26"/>
+      <c r="J9" s="31"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:10">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="38"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="44"/>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:10">
-      <c r="A11" s="35"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="20"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -2318,8 +2348,8 @@
   <sheetPr/>
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2454,10 +2484,10 @@
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
-      <c r="K6" s="26"/>
+      <c r="K6" s="31"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:11">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="36" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="17" t="s">
@@ -2469,12 +2499,12 @@
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:11">
-      <c r="A8" s="29"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="20" t="s">
         <v>53</v>
       </c>
@@ -2482,26 +2512,24 @@
       <c r="D8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="20" t="s">
-        <v>54</v>
-      </c>
+      <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="21"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:11">
+      <c r="A9" s="36"/>
+      <c r="B9" s="20" t="s">
         <v>55</v>
-      </c>
-      <c r="K8" s="21"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:11">
-      <c r="A9" s="29"/>
-      <c r="B9" s="20" t="s">
-        <v>56</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
@@ -2509,12 +2537,12 @@
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K9" s="21"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:11">
-      <c r="A10" s="29"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="22" t="s">
         <v>49</v>
       </c>
@@ -2522,9 +2550,7 @@
       <c r="D10" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="23">
-        <v>20</v>
-      </c>
+      <c r="E10" s="23"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
@@ -2535,13 +2561,13 @@
       <c r="K10" s="23"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:11">
-      <c r="A11" s="29"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
@@ -2549,56 +2575,52 @@
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
       <c r="J11" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="23"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:11">
+      <c r="A12" s="36"/>
+      <c r="B12" s="22" t="s">
         <v>60</v>
-      </c>
-      <c r="K11" s="23"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:11">
-      <c r="A12" s="29"/>
-      <c r="B12" s="22" t="s">
-        <v>61</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="23">
-        <v>20</v>
-      </c>
+      <c r="E12" s="23"/>
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
       <c r="J12" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12" s="23"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:11">
+      <c r="A13" s="36"/>
+      <c r="B13" s="22" t="s">
         <v>62</v>
-      </c>
-      <c r="K12" s="23"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:11">
-      <c r="A13" s="29"/>
-      <c r="B13" s="22" t="s">
-        <v>63</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="23">
-        <v>11</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E13" s="23"/>
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
       <c r="J13" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="23"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:11">
+      <c r="A14" s="36"/>
+      <c r="B14" s="37" t="s">
         <v>65</v>
-      </c>
-      <c r="K13" s="23"/>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:11">
-      <c r="A14" s="29"/>
-      <c r="B14" s="30" t="s">
-        <v>66</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>49</v>
@@ -2606,11 +2628,9 @@
       <c r="D14" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
       <c r="J14" s="21" t="s">
@@ -2619,61 +2639,55 @@
       <c r="K14" s="23"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:11">
-      <c r="A15" s="29"/>
-      <c r="B15" s="32"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
       <c r="J15" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K15" s="23"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:11">
-      <c r="A16" s="29"/>
-      <c r="B16" s="32"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="21">
-        <v>20</v>
-      </c>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
       <c r="J16" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K16" s="23"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:11">
-      <c r="A17" s="29"/>
-      <c r="B17" s="32"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="22" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="23">
-        <v>4</v>
-      </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
       <c r="J17" s="23" t="s">
@@ -2682,19 +2696,17 @@
       <c r="K17" s="23"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:11">
-      <c r="A18" s="29"/>
-      <c r="B18" s="32"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="22" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="23">
-        <v>4</v>
-      </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
       <c r="J18" s="23" t="s">
@@ -2703,19 +2715,17 @@
       <c r="K18" s="23"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:11">
-      <c r="A19" s="29"/>
-      <c r="B19" s="32"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D19" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="23">
-        <v>200</v>
-      </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
       <c r="J19" s="23" t="s">
@@ -2724,152 +2734,140 @@
       <c r="K19" s="23"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:11">
-      <c r="A20" s="29"/>
-      <c r="B20" s="33"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="23">
-        <v>11</v>
-      </c>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
+        <v>63</v>
+      </c>
+      <c r="E20" s="23"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
       <c r="H20" s="23"/>
       <c r="I20" s="23"/>
       <c r="J20" s="23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K20" s="23"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:11">
-      <c r="A21" s="29"/>
-      <c r="B21" s="30" t="s">
-        <v>75</v>
+      <c r="A21" s="36"/>
+      <c r="B21" s="37" t="s">
+        <v>73</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
       <c r="J21" s="21"/>
       <c r="K21" s="23"/>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:11">
-      <c r="A22" s="29"/>
-      <c r="B22" s="32"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="20" t="s">
         <v>53</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
       <c r="J22" s="21"/>
       <c r="K22" s="23"/>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:11">
-      <c r="A23" s="29"/>
-      <c r="B23" s="32"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="39"/>
       <c r="C23" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="21" t="s">
-        <v>57</v>
-      </c>
       <c r="E23" s="21"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
       <c r="H23" s="23"/>
       <c r="I23" s="23"/>
       <c r="J23" s="21"/>
       <c r="K23" s="23"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:11">
-      <c r="A24" s="29"/>
-      <c r="B24" s="32"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="22" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="23">
-        <v>20</v>
-      </c>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
       <c r="J24" s="23"/>
       <c r="K24" s="23"/>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:11">
-      <c r="A25" s="29"/>
-      <c r="B25" s="32"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E25" s="23"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
       <c r="H25" s="23"/>
       <c r="I25" s="23"/>
       <c r="J25" s="23"/>
       <c r="K25" s="23"/>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:11">
-      <c r="A26" s="29"/>
-      <c r="B26" s="32"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="39"/>
       <c r="C26" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="23">
-        <v>20</v>
-      </c>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
       <c r="H26" s="23"/>
       <c r="I26" s="23"/>
       <c r="J26" s="23"/>
       <c r="K26" s="23"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:11">
-      <c r="A27" s="29"/>
-      <c r="B27" s="33"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="40"/>
       <c r="C27" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="23">
-        <v>11</v>
-      </c>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
       <c r="H27" s="23"/>
       <c r="I27" s="23"/>
       <c r="J27" s="23"/>
@@ -2896,7 +2894,7 @@
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -2913,7 +2911,7 @@
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -2982,7 +2980,7 @@
     <row r="33" spans="1:11">
       <c r="A33" s="11"/>
       <c r="B33" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="8" t="s">
@@ -2998,7 +2996,7 @@
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K33" s="8"/>
     </row>
@@ -3021,7 +3019,7 @@
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K34" s="8"/>
     </row>
@@ -3053,33 +3051,31 @@
       <c r="H36" s="15"/>
       <c r="I36" s="15"/>
       <c r="J36" s="15"/>
-      <c r="K36" s="26"/>
+      <c r="K36" s="31"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="36" t="s">
         <v>28</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C37" s="20"/>
       <c r="D37" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="20" t="s">
-        <v>67</v>
-      </c>
+      <c r="E37" s="20"/>
       <c r="F37" s="20"/>
       <c r="G37" s="20"/>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
       <c r="J37" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K37" s="21"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="29"/>
+      <c r="A38" s="36"/>
       <c r="B38" s="20" t="s">
         <v>53</v>
       </c>
@@ -3087,26 +3083,24 @@
       <c r="D38" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E38" s="20" t="s">
-        <v>54</v>
-      </c>
+      <c r="E38" s="20"/>
       <c r="F38" s="20"/>
       <c r="G38" s="20"/>
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
       <c r="J38" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="K38" s="21"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="36"/>
+      <c r="B39" s="20" t="s">
         <v>55</v>
-      </c>
-      <c r="K38" s="21"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="29"/>
-      <c r="B39" s="20" t="s">
-        <v>56</v>
       </c>
       <c r="C39" s="20"/>
       <c r="D39" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
@@ -3114,12 +3108,12 @@
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K39" s="21"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="29"/>
+      <c r="A40" s="36"/>
       <c r="B40" s="22" t="s">
         <v>49</v>
       </c>
@@ -3127,9 +3121,7 @@
       <c r="D40" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="E40" s="23">
-        <v>20</v>
-      </c>
+      <c r="E40" s="23"/>
       <c r="F40" s="23"/>
       <c r="G40" s="23"/>
       <c r="H40" s="23"/>
@@ -3140,13 +3132,13 @@
       <c r="K40" s="23"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="29"/>
+      <c r="A41" s="36"/>
       <c r="B41" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C41" s="22"/>
       <c r="D41" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E41" s="23"/>
       <c r="F41" s="23"/>
@@ -3154,49 +3146,45 @@
       <c r="H41" s="23"/>
       <c r="I41" s="23"/>
       <c r="J41" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="K41" s="23"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="36"/>
+      <c r="B42" s="22" t="s">
         <v>60</v>
-      </c>
-      <c r="K41" s="23"/>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="29"/>
-      <c r="B42" s="22" t="s">
-        <v>61</v>
       </c>
       <c r="C42" s="22"/>
       <c r="D42" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="E42" s="23">
-        <v>20</v>
-      </c>
+      <c r="E42" s="23"/>
       <c r="F42" s="23"/>
       <c r="G42" s="23"/>
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
       <c r="J42" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="K42" s="23"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="36"/>
+      <c r="B43" s="22" t="s">
         <v>62</v>
-      </c>
-      <c r="K42" s="23"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="29"/>
-      <c r="B43" s="22" t="s">
-        <v>63</v>
       </c>
       <c r="C43" s="22"/>
       <c r="D43" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E43" s="23">
-        <v>11</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E43" s="23"/>
       <c r="F43" s="23"/>
       <c r="G43" s="23"/>
       <c r="H43" s="23"/>
       <c r="I43" s="23"/>
       <c r="J43" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K43" s="23"/>
     </row>
@@ -3207,7 +3195,7 @@
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -3224,7 +3212,7 @@
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -3293,7 +3281,7 @@
     <row r="49" spans="1:11">
       <c r="A49" s="9"/>
       <c r="B49" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="8" t="s">
@@ -3309,18 +3297,18 @@
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K49" s="8"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="9"/>
       <c r="B50" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
@@ -3330,7 +3318,7 @@
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K50" s="8"/>
     </row>
@@ -3353,14 +3341,14 @@
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K51" s="8"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="28"/>
+      <c r="A52" s="35"/>
       <c r="B52" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="8" t="s">
@@ -3376,7 +3364,7 @@
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K52" s="8"/>
     </row>
@@ -3408,33 +3396,31 @@
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
       <c r="J54" s="15"/>
-      <c r="K54" s="26"/>
+      <c r="K54" s="31"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="29" t="s">
+      <c r="A55" s="36" t="s">
         <v>28</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C55" s="20"/>
       <c r="D55" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E55" s="20" t="s">
-        <v>67</v>
-      </c>
+      <c r="E55" s="20"/>
       <c r="F55" s="20"/>
       <c r="G55" s="20"/>
       <c r="H55" s="21"/>
       <c r="I55" s="21"/>
       <c r="J55" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K55" s="21"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="29"/>
+      <c r="A56" s="36"/>
       <c r="B56" s="20" t="s">
         <v>53</v>
       </c>
@@ -3442,26 +3428,24 @@
       <c r="D56" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E56" s="20" t="s">
-        <v>54</v>
-      </c>
+      <c r="E56" s="20"/>
       <c r="F56" s="20"/>
       <c r="G56" s="20"/>
       <c r="H56" s="21"/>
       <c r="I56" s="21"/>
       <c r="J56" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="K56" s="21"/>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="36"/>
+      <c r="B57" s="20" t="s">
         <v>55</v>
-      </c>
-      <c r="K56" s="21"/>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="29"/>
-      <c r="B57" s="20" t="s">
-        <v>56</v>
       </c>
       <c r="C57" s="20"/>
       <c r="D57" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E57" s="21"/>
       <c r="F57" s="21"/>
@@ -3469,12 +3453,12 @@
       <c r="H57" s="21"/>
       <c r="I57" s="21"/>
       <c r="J57" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K57" s="21"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="29"/>
+      <c r="A58" s="36"/>
       <c r="B58" s="22" t="s">
         <v>49</v>
       </c>
@@ -3482,9 +3466,7 @@
       <c r="D58" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="E58" s="23">
-        <v>20</v>
-      </c>
+      <c r="E58" s="23"/>
       <c r="F58" s="23"/>
       <c r="G58" s="23"/>
       <c r="H58" s="23"/>
@@ -3495,13 +3477,13 @@
       <c r="K58" s="23"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="29"/>
+      <c r="A59" s="36"/>
       <c r="B59" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C59" s="22"/>
       <c r="D59" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E59" s="23"/>
       <c r="F59" s="23"/>
@@ -3509,49 +3491,45 @@
       <c r="H59" s="23"/>
       <c r="I59" s="23"/>
       <c r="J59" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="K59" s="23"/>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="36"/>
+      <c r="B60" s="22" t="s">
         <v>60</v>
-      </c>
-      <c r="K59" s="23"/>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="29"/>
-      <c r="B60" s="22" t="s">
-        <v>61</v>
       </c>
       <c r="C60" s="22"/>
       <c r="D60" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="E60" s="23">
-        <v>20</v>
-      </c>
+      <c r="E60" s="23"/>
       <c r="F60" s="23"/>
       <c r="G60" s="23"/>
       <c r="H60" s="23"/>
       <c r="I60" s="23"/>
       <c r="J60" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="K60" s="23"/>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="36"/>
+      <c r="B61" s="22" t="s">
         <v>62</v>
-      </c>
-      <c r="K60" s="23"/>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="29"/>
-      <c r="B61" s="22" t="s">
-        <v>63</v>
       </c>
       <c r="C61" s="22"/>
       <c r="D61" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E61" s="23">
-        <v>11</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E61" s="23"/>
       <c r="F61" s="23"/>
       <c r="G61" s="23"/>
       <c r="H61" s="23"/>
       <c r="I61" s="23"/>
       <c r="J61" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K61" s="23"/>
     </row>
@@ -3593,8 +3571,8 @@
   <sheetPr/>
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3618,7 +3596,7 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -3635,7 +3613,7 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -3704,7 +3682,7 @@
     <row r="5" s="1" customFormat="1" spans="1:11">
       <c r="A5" s="9"/>
       <c r="B5" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
@@ -3720,7 +3698,7 @@
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K5" s="8"/>
     </row>
@@ -3737,7 +3715,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8" t="s">
@@ -3762,7 +3740,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8" t="s">
@@ -3775,9 +3753,9 @@
       <c r="K7" s="8"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:11">
-      <c r="A8" s="28"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="8" t="s">
@@ -3825,10 +3803,10 @@
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
-      <c r="K10" s="26"/>
+      <c r="K10" s="31"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:11">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="36" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="20" t="s">
@@ -3838,9 +3816,7 @@
       <c r="D11" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="20" t="s">
-        <v>67</v>
-      </c>
+      <c r="E11" s="20"/>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
       <c r="H11" s="21"/>
@@ -3851,49 +3827,45 @@
       <c r="K11" s="21"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:11">
-      <c r="A12" s="29"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="20" t="s">
-        <v>67</v>
-      </c>
+      <c r="E12" s="20"/>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K12" s="21"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:11">
-      <c r="A13" s="29"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="21">
-        <v>20</v>
-      </c>
+      <c r="E13" s="21"/>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
       <c r="J13" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K13" s="21"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:11">
-      <c r="A14" s="29"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="22" t="s">
         <v>30</v>
       </c>
@@ -3901,9 +3873,7 @@
       <c r="D14" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="23">
-        <v>4</v>
-      </c>
+      <c r="E14" s="23"/>
       <c r="F14" s="24"/>
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
@@ -3914,7 +3884,7 @@
       <c r="K14" s="23"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:11">
-      <c r="A15" s="29"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="22" t="s">
         <v>33</v>
       </c>
@@ -3922,9 +3892,7 @@
       <c r="D15" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="23">
-        <v>4</v>
-      </c>
+      <c r="E15" s="23"/>
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
@@ -3935,17 +3903,15 @@
       <c r="K15" s="23"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:11">
-      <c r="A16" s="29"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="23">
-        <v>200</v>
-      </c>
+      <c r="E16" s="23"/>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
@@ -3956,23 +3922,21 @@
       <c r="K16" s="23"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:11">
-      <c r="A17" s="29"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="23">
-        <v>11</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E17" s="23"/>
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
       <c r="J17" s="23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K17" s="23"/>
     </row>
@@ -3983,7 +3947,7 @@
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -4000,7 +3964,7 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -4069,7 +4033,7 @@
     <row r="23" spans="1:11">
       <c r="A23" s="9"/>
       <c r="B23" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8" t="s">
@@ -4085,7 +4049,7 @@
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K23" s="8"/>
     </row>
@@ -4102,7 +4066,7 @@
         <v>4</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8" t="s">
@@ -4127,7 +4091,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8" t="s">
@@ -4140,9 +4104,9 @@
       <c r="K25" s="8"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="28"/>
+      <c r="A26" s="35"/>
       <c r="B26" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="8" t="s">
@@ -4190,10 +4154,10 @@
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
       <c r="J28" s="15"/>
-      <c r="K28" s="26"/>
+      <c r="K28" s="31"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="36" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="20" t="s">
@@ -4203,9 +4167,7 @@
       <c r="D29" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="20" t="s">
-        <v>67</v>
-      </c>
+      <c r="E29" s="20"/>
       <c r="F29" s="20"/>
       <c r="G29" s="20"/>
       <c r="H29" s="21"/>
@@ -4216,49 +4178,45 @@
       <c r="K29" s="21"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="29"/>
+      <c r="A30" s="36"/>
       <c r="B30" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C30" s="20"/>
       <c r="D30" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="20" t="s">
-        <v>67</v>
-      </c>
+      <c r="E30" s="20"/>
       <c r="F30" s="20"/>
       <c r="G30" s="20"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K30" s="21"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="29"/>
+      <c r="A31" s="36"/>
       <c r="B31" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C31" s="20"/>
       <c r="D31" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="21">
-        <v>20</v>
-      </c>
+      <c r="E31" s="21"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K31" s="21"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="29"/>
+      <c r="A32" s="36"/>
       <c r="B32" s="22" t="s">
         <v>30</v>
       </c>
@@ -4266,9 +4224,7 @@
       <c r="D32" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="23">
-        <v>4</v>
-      </c>
+      <c r="E32" s="23"/>
       <c r="F32" s="24"/>
       <c r="G32" s="23"/>
       <c r="H32" s="23"/>
@@ -4279,7 +4235,7 @@
       <c r="K32" s="23"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="29"/>
+      <c r="A33" s="36"/>
       <c r="B33" s="22" t="s">
         <v>33</v>
       </c>
@@ -4287,9 +4243,7 @@
       <c r="D33" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="23">
-        <v>4</v>
-      </c>
+      <c r="E33" s="23"/>
       <c r="F33" s="23"/>
       <c r="G33" s="23"/>
       <c r="H33" s="23"/>
@@ -4300,17 +4254,15 @@
       <c r="K33" s="23"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="29"/>
+      <c r="A34" s="36"/>
       <c r="B34" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C34" s="22"/>
       <c r="D34" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E34" s="23">
-        <v>200</v>
-      </c>
+      <c r="E34" s="23"/>
       <c r="F34" s="23"/>
       <c r="G34" s="23"/>
       <c r="H34" s="23"/>
@@ -4321,23 +4273,21 @@
       <c r="K34" s="23"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="29"/>
+      <c r="A35" s="36"/>
       <c r="B35" s="22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C35" s="22"/>
       <c r="D35" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E35" s="23">
-        <v>11</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E35" s="23"/>
       <c r="F35" s="23"/>
       <c r="G35" s="23"/>
       <c r="H35" s="23"/>
       <c r="I35" s="23"/>
       <c r="J35" s="23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K35" s="23"/>
     </row>
@@ -4348,7 +4298,7 @@
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -4365,7 +4315,7 @@
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -4434,7 +4384,7 @@
     <row r="41" spans="1:11">
       <c r="A41" s="9"/>
       <c r="B41" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8" t="s">
@@ -4450,7 +4400,7 @@
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K41" s="8"/>
     </row>
@@ -4482,10 +4432,10 @@
       <c r="H43" s="15"/>
       <c r="I43" s="15"/>
       <c r="J43" s="15"/>
-      <c r="K43" s="26"/>
+      <c r="K43" s="31"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="36" t="s">
         <v>28</v>
       </c>
       <c r="B44" s="20"/>
@@ -4536,10 +4486,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:K29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -4563,7 +4513,7 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -4580,7 +4530,7 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -4649,11 +4599,11 @@
     <row r="5" s="1" customFormat="1" spans="1:11">
       <c r="A5" s="9"/>
       <c r="B5" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E5" s="8">
         <v>1</v>
@@ -4665,14 +4615,14 @@
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K5" s="8"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:11">
       <c r="A6" s="9"/>
       <c r="B6" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="8" t="s">
@@ -4688,7 +4638,7 @@
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>25</v>
@@ -4697,7 +4647,7 @@
     <row r="7" s="1" customFormat="1" spans="1:11">
       <c r="A7" s="9"/>
       <c r="B7" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="8" t="s">
@@ -4713,7 +4663,7 @@
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>25</v>
@@ -4747,14 +4697,14 @@
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
-      <c r="K9" s="26"/>
+      <c r="K9" s="31"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:11">
       <c r="A10" s="16" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -4762,9 +4712,9 @@
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
-      <c r="I10" s="27"/>
+      <c r="I10" s="32"/>
       <c r="J10" s="21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K10" s="21"/>
     </row>
@@ -4777,9 +4727,7 @@
       <c r="D11" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="20" t="s">
-        <v>67</v>
-      </c>
+      <c r="E11" s="20"/>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
       <c r="H11" s="21"/>
@@ -4792,147 +4740,133 @@
     <row r="12" s="1" customFormat="1" spans="1:11">
       <c r="A12" s="19"/>
       <c r="B12" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="21">
-        <v>20</v>
-      </c>
+      <c r="E12" s="21"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K12" s="21"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:11">
       <c r="A13" s="19"/>
       <c r="B13" s="22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="23">
-        <v>4</v>
-      </c>
+      <c r="E13" s="23"/>
       <c r="F13" s="24"/>
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
       <c r="J13" s="23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K13" s="23"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:11">
       <c r="A14" s="19"/>
       <c r="B14" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="23">
-        <v>4</v>
-      </c>
+      <c r="E14" s="23"/>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
       <c r="J14" s="23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K14" s="23"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:11">
       <c r="A15" s="19"/>
       <c r="B15" s="22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="23">
-        <v>200</v>
-      </c>
+      <c r="E15" s="23"/>
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
       <c r="J15" s="23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K15" s="23"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:11">
       <c r="A16" s="19"/>
       <c r="B16" s="22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="23">
-        <v>11</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E16" s="23"/>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
       <c r="J16" s="23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K16" s="23"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:11">
       <c r="A17" s="19"/>
       <c r="B17" s="22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="23">
-        <v>11</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E17" s="23"/>
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
       <c r="J17" s="23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K17" s="23"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:11">
       <c r="A18" s="25"/>
       <c r="B18" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C18" s="22"/>
       <c r="D18" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="23">
-        <v>11</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E18" s="23"/>
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
       <c r="J18" s="23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K18" s="23"/>
     </row>
@@ -4943,7 +4877,7 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -4960,7 +4894,7 @@
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -5029,11 +4963,11 @@
     <row r="24" s="1" customFormat="1" spans="1:11">
       <c r="A24" s="9"/>
       <c r="B24" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E24" s="8">
         <v>1</v>
@@ -5045,14 +4979,14 @@
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K24" s="8"/>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:11">
       <c r="A25" s="9"/>
       <c r="B25" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="8" t="s">
@@ -5068,7 +5002,7 @@
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K25" s="8" t="s">
         <v>25</v>
@@ -5077,7 +5011,7 @@
     <row r="26" s="1" customFormat="1" spans="1:11">
       <c r="A26" s="9"/>
       <c r="B26" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="8" t="s">
@@ -5093,7 +5027,7 @@
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K26" s="8" t="s">
         <v>25</v>
@@ -5102,7 +5036,7 @@
     <row r="27" s="1" customFormat="1" spans="1:11">
       <c r="A27" s="9"/>
       <c r="B27" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="8" t="s">
@@ -5111,27 +5045,25 @@
       <c r="E27" s="8">
         <v>4</v>
       </c>
-      <c r="F27" s="8" t="s">
-        <v>116</v>
-      </c>
+      <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K27" s="8"/>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:11">
       <c r="A28" s="9"/>
       <c r="B28" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E28" s="8">
         <v>11</v>
@@ -5143,229 +5075,318 @@
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="K28" s="8"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:11">
+      <c r="A29" s="9"/>
+      <c r="B29" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:11">
+      <c r="A30" s="9"/>
+      <c r="B30" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="K28" s="8"/>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="1:11">
-      <c r="A29" s="11" t="s">
+      <c r="D30" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="8">
+        <v>4</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K30" s="8"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:11">
+      <c r="A31" s="9"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="8">
+        <v>4</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="K31" s="8"/>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:11">
+      <c r="A32" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="1:11">
-      <c r="A30" s="11" t="s">
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:11">
+      <c r="A33" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="26"/>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="1:11">
-      <c r="A31" s="16" t="s">
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="31"/>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="1:11">
+      <c r="A34" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="K31" s="21"/>
-    </row>
-    <row r="32" s="1" customFormat="1" spans="1:11">
-      <c r="A32" s="19"/>
-      <c r="B32" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="K32" s="21"/>
-    </row>
-    <row r="33" s="1" customFormat="1" spans="1:11">
-      <c r="A33" s="19"/>
-      <c r="B33" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="21">
-        <v>20</v>
-      </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="K33" s="21"/>
-    </row>
-    <row r="34" s="1" customFormat="1" spans="1:11">
-      <c r="A34" s="19"/>
-      <c r="B34" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="23">
-        <v>4</v>
-      </c>
-      <c r="F34" s="24"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="K34" s="23"/>
+      <c r="B34" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="K34" s="21"/>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:11">
       <c r="A35" s="19"/>
-      <c r="B35" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="23">
-        <v>4</v>
-      </c>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="K35" s="23"/>
+      <c r="B35" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="K35" s="34"/>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:11">
       <c r="A36" s="19"/>
-      <c r="B36" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="23" t="s">
+      <c r="B36" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E36" s="23">
-        <v>200</v>
-      </c>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="K36" s="23"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="K36" s="34"/>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:11">
       <c r="A37" s="19"/>
-      <c r="B37" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E37" s="23">
-        <v>11</v>
-      </c>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="K37" s="23"/>
+      <c r="B37" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K37" s="21"/>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:11">
       <c r="A38" s="19"/>
-      <c r="B38" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E38" s="23">
-        <v>11</v>
-      </c>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="K38" s="23"/>
+      <c r="B38" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="20"/>
+      <c r="D38" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="K38" s="21"/>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:11">
-      <c r="A39" s="25"/>
+      <c r="A39" s="19"/>
       <c r="B39" s="22" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C39" s="22"/>
       <c r="D39" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E39" s="23">
-        <v>11</v>
-      </c>
-      <c r="F39" s="23"/>
+        <v>17</v>
+      </c>
+      <c r="E39" s="23"/>
+      <c r="F39" s="24"/>
       <c r="G39" s="23"/>
       <c r="H39" s="23"/>
       <c r="I39" s="23"/>
       <c r="J39" s="23" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="K39" s="23"/>
     </row>
+    <row r="40" s="1" customFormat="1" spans="1:11">
+      <c r="A40" s="19"/>
+      <c r="B40" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="22"/>
+      <c r="D40" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="K40" s="23"/>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="1:11">
+      <c r="A41" s="19"/>
+      <c r="B41" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="22"/>
+      <c r="D41" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="K41" s="23"/>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="1:11">
+      <c r="A42" s="19"/>
+      <c r="B42" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="22"/>
+      <c r="D42" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="K42" s="23"/>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="1:11">
+      <c r="A43" s="19"/>
+      <c r="B43" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="22"/>
+      <c r="D43" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="K43" s="23"/>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="1:11">
+      <c r="A44" s="25"/>
+      <c r="B44" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="22"/>
+      <c r="D44" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="K44" s="23"/>
+    </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="22">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:K1"/>
     <mergeCell ref="A2:B2"/>
@@ -5379,13 +5400,15 @@
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="D21:K21"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B29:K29"/>
-    <mergeCell ref="B30:K30"/>
-    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="B33:K33"/>
+    <mergeCell ref="B34:I34"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A10:A18"/>
     <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A31:A39"/>
+    <mergeCell ref="A34:A44"/>
+    <mergeCell ref="B30:B31"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/doc/接口文档.xlsx
+++ b/doc/接口文档.xlsx
@@ -4,108 +4,127 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13650" activeTab="5"/>
+    <workbookView windowWidth="28695" windowHeight="13650" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="跑批会话列表" sheetId="1" r:id="rId1"/>
-    <sheet name="规则碰撞" sheetId="2" r:id="rId2"/>
-    <sheet name="会话明细查询" sheetId="3" r:id="rId3"/>
-    <sheet name="管理标签接口" sheetId="4" r:id="rId4"/>
-    <sheet name="管理规则接口" sheetId="5" r:id="rId5"/>
-    <sheet name="查询汇总接口" sheetId="6" r:id="rId6"/>
+    <sheet name="搜索" sheetId="7" r:id="rId1"/>
+    <sheet name="会话跑批触发" sheetId="1" r:id="rId2"/>
+    <sheet name="规则碰撞" sheetId="2" r:id="rId3"/>
+    <sheet name="会话明细查询" sheetId="3" r:id="rId4"/>
+    <sheet name="管理标签" sheetId="4" r:id="rId5"/>
+    <sheet name="管理规则" sheetId="5" r:id="rId6"/>
+    <sheet name="查询汇总" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130">
   <si>
     <t>接口名称</t>
   </si>
   <si>
+    <t>搜索</t>
+  </si>
+  <si>
+    <t>接口描述</t>
+  </si>
+  <si>
+    <t>/solr/blueminecore/select</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>长度</t>
+  </si>
+  <si>
+    <t>范围</t>
+  </si>
+  <si>
+    <t>默认值</t>
+  </si>
+  <si>
+    <t>是否必填</t>
+  </si>
+  <si>
+    <t>依赖参数</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>请求报文</t>
+  </si>
+  <si>
+    <t>calls[]</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>会话列表</t>
+  </si>
+  <si>
+    <t>channelNo</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>渠道号</t>
+  </si>
+  <si>
+    <t>唯一</t>
+  </si>
+  <si>
+    <t>callNo</t>
+  </si>
+  <si>
+    <t>会话号</t>
+  </si>
+  <si>
+    <t>callDate</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>会话日期</t>
+  </si>
+  <si>
+    <t>YYYY-mm-dd</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>用例</t>
+  </si>
+  <si>
+    <t>响应报文</t>
+  </si>
+  <si>
     <t>跑批会话列表</t>
   </si>
   <si>
-    <t>接口描述</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>长度</t>
-  </si>
-  <si>
-    <t>范围</t>
-  </si>
-  <si>
-    <t>默认值</t>
-  </si>
-  <si>
-    <t>是否必填</t>
-  </si>
-  <si>
-    <t>依赖参数</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>请求报文</t>
-  </si>
-  <si>
-    <t>calls[]</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>会话列表</t>
-  </si>
-  <si>
-    <t>channelNo</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>渠道号</t>
-  </si>
-  <si>
-    <t>唯一</t>
-  </si>
-  <si>
-    <t>callNo</t>
-  </si>
-  <si>
-    <t>会话号</t>
-  </si>
-  <si>
-    <t>callDate</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>会话日期</t>
-  </si>
-  <si>
-    <t>YYYY-mm-dd</t>
-  </si>
-  <si>
-    <t>说明</t>
-  </si>
-  <si>
-    <t>用例</t>
-  </si>
-  <si>
-    <t>响应报文</t>
+    <t>/service/call/batch/trigger</t>
+  </si>
+  <si>
+    <t>[&lt;CallBatch&gt;]</t>
+  </si>
+  <si>
+    <t>seatNo</t>
+  </si>
+  <si>
+    <t>坐席号</t>
   </si>
   <si>
     <t>规则碰撞接口</t>
@@ -398,10 +417,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1125,7 +1144,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1171,9 +1190,6 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1192,12 +1208,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1249,9 +1259,6 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1259,6 +1266,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1592,7 +1617,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C2" sqref="C2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1630,7 +1655,9 @@
         <v>2</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -1642,60 +1669,60 @@
     <row r="3" spans="1:10">
       <c r="A3" s="3"/>
       <c r="B3" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47"/>
+      <c r="B4" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="11"/>
       <c r="B5" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="8">
         <v>64</v>
@@ -1703,23 +1730,23 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="11"/>
       <c r="B6" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="8">
         <v>64</v>
@@ -1727,23 +1754,23 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="11"/>
       <c r="B7" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" s="8">
         <v>10</v>
@@ -1751,19 +1778,19 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" ht="53" customHeight="1" spans="1:10">
       <c r="A8" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -1777,31 +1804,31 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="31"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="28"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
+      <c r="A10" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1820,6 +1847,263 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="8.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="40.625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3"/>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="45"/>
+      <c r="B5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="8">
+        <v>64</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="45"/>
+      <c r="B6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="8">
+        <v>64</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="45"/>
+      <c r="B7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="8">
+        <v>10</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="46"/>
+      <c r="B8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="8">
+        <v>64</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" ht="53" customHeight="1" spans="1:10">
+      <c r="A9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="28"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="A4:A8"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J12"/>
@@ -1848,7 +2132,7 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -1875,40 +2159,40 @@
     <row r="3" s="1" customFormat="1" spans="1:10">
       <c r="A3" s="3"/>
       <c r="B3" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:10">
       <c r="A4" s="11"/>
       <c r="B4" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="8">
         <v>64</v>
@@ -1916,23 +2200,23 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:10">
       <c r="A5" s="11"/>
       <c r="B5" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="8">
         <v>64</v>
@@ -1940,71 +2224,71 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:10">
       <c r="A6" s="11"/>
       <c r="B6" s="10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="8">
         <v>4</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J6" s="8"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:10">
       <c r="A7" s="11"/>
       <c r="B7" s="10" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="8">
         <v>4</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J7" s="8"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:10">
       <c r="A8" s="11"/>
       <c r="B8" s="10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" s="8">
         <v>255</v>
@@ -2012,17 +2296,17 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="J8" s="8"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="53" customHeight="1" spans="1:10">
       <c r="A9" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -2036,45 +2320,45 @@
     </row>
     <row r="10" s="1" customFormat="1" spans="1:10">
       <c r="A10" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" s="13"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="31"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="28"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:10">
-      <c r="A11" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
+      <c r="A11" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:10">
-      <c r="A12" s="41"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2092,7 +2376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J11"/>
@@ -2121,7 +2405,7 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -2148,40 +2432,40 @@
     <row r="3" s="1" customFormat="1" spans="1:10">
       <c r="A3" s="3"/>
       <c r="B3" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:10">
       <c r="A4" s="11"/>
       <c r="B4" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="8">
         <v>64</v>
@@ -2189,23 +2473,23 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:10">
       <c r="A5" s="11"/>
       <c r="B5" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="8">
         <v>64</v>
@@ -2213,23 +2497,23 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:10">
       <c r="A6" s="11"/>
       <c r="B6" s="10" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D6" s="8">
         <v>4</v>
@@ -2237,23 +2521,23 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:10">
       <c r="A7" s="11"/>
       <c r="B7" s="10" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D7" s="8">
         <v>4</v>
@@ -2261,19 +2545,19 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:10">
       <c r="A8" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -2287,45 +2571,45 @@
     </row>
     <row r="9" s="1" customFormat="1" spans="1:10">
       <c r="A9" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="31"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="28"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:10">
-      <c r="A10" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
+      <c r="A10" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:10">
-      <c r="A11" s="41"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2343,13 +2627,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2373,7 +2657,7 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -2390,7 +2674,7 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -2403,44 +2687,44 @@
     <row r="3" s="1" customFormat="1" spans="1:11">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:11">
       <c r="A4" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E4" s="8">
         <v>20</v>
@@ -2448,17 +2732,17 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K4" s="8"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:11">
       <c r="A5" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -2473,405 +2757,405 @@
     </row>
     <row r="6" s="1" customFormat="1" spans="1:11">
       <c r="A6" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="31"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="28"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:11">
-      <c r="A7" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
+      <c r="A7" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:11">
-      <c r="A8" s="36"/>
-      <c r="B8" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="K8" s="21"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="20"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:11">
-      <c r="A9" s="36"/>
-      <c r="B9" s="20" t="s">
+      <c r="A9" s="33"/>
+      <c r="B9" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="20"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:11">
+      <c r="A10" s="33"/>
+      <c r="B10" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21" t="s">
+      <c r="C10" s="19"/>
+      <c r="D10" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21" t="s">
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="K9" s="21"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:11">
-      <c r="A10" s="36"/>
-      <c r="B10" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="K10" s="23"/>
+      <c r="K10" s="20"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:11">
-      <c r="A11" s="36"/>
-      <c r="B11" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23" t="s">
+      <c r="A11" s="33"/>
+      <c r="B11" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="20"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:11">
+      <c r="A12" s="33"/>
+      <c r="B12" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23" t="s">
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" s="20"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:11">
+      <c r="A13" s="33"/>
+      <c r="B13" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:11">
+      <c r="A14" s="33"/>
+      <c r="B14" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" s="20"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:11">
+      <c r="A15" s="33"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" s="20"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:11">
+      <c r="A16" s="33"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:11">
+      <c r="A17" s="33"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" s="20"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:11">
+      <c r="A18" s="33"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:11">
+      <c r="A19" s="33"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" s="20"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:11">
+      <c r="A20" s="33"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="K20" s="20"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:11">
+      <c r="A21" s="33"/>
+      <c r="B21" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:11">
+      <c r="A22" s="33"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="K11" s="23"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:11">
-      <c r="A12" s="36"/>
-      <c r="B12" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23" t="s">
+      <c r="D22" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:11">
+      <c r="A23" s="33"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="23"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:11">
-      <c r="A13" s="36"/>
-      <c r="B13" s="22" t="s">
+      <c r="D23" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23" t="s">
+      <c r="E23" s="20"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:11">
+      <c r="A24" s="33"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:11">
+      <c r="A25" s="33"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="K13" s="23"/>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:11">
-      <c r="A14" s="36"/>
-      <c r="B14" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="K14" s="23"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:11">
-      <c r="A15" s="36"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="20" t="s">
+      <c r="D25" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:11">
+      <c r="A26" s="33"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="K15" s="23"/>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:11">
-      <c r="A16" s="36"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="20" t="s">
+      <c r="D26" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:11">
+      <c r="A27" s="33"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="21" t="s">
+      <c r="D27" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="K16" s="23"/>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:11">
-      <c r="A17" s="36"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="K17" s="23"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:11">
-      <c r="A18" s="36"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="K18" s="23"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:11">
-      <c r="A19" s="36"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="K19" s="23"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:11">
-      <c r="A20" s="36"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="K20" s="23"/>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:11">
-      <c r="A21" s="36"/>
-      <c r="B21" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="23"/>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:11">
-      <c r="A22" s="36"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="23"/>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:11">
-      <c r="A23" s="36"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="23"/>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:11">
-      <c r="A24" s="36"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="23"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:11">
-      <c r="A25" s="36"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="23"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:11">
-      <c r="A26" s="36"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="23"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:11">
-      <c r="A27" s="36"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:12">
       <c r="A28"/>
@@ -2894,7 +3178,7 @@
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -2911,7 +3195,7 @@
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -2924,44 +3208,44 @@
     <row r="31" spans="1:11">
       <c r="A31" s="3"/>
       <c r="B31" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E32" s="8">
         <v>20</v>
@@ -2969,22 +3253,22 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K32" s="8"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="11"/>
       <c r="B33" s="10" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E33" s="8">
         <v>20</v>
@@ -2992,22 +3276,22 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="K33" s="8"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="11"/>
       <c r="B34" s="10" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E34" s="8">
         <v>200</v>
@@ -3015,17 +3299,17 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="K34" s="8"/>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -3040,153 +3324,153 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B36" s="13"/>
       <c r="C36" s="14"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="31"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="28"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" s="20" t="s">
+      <c r="A37" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="K37" s="20"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="33"/>
+      <c r="B38" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="K38" s="20"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="33"/>
+      <c r="B39" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="K39" s="20"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="33"/>
+      <c r="B40" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="K40" s="20"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="33"/>
+      <c r="B41" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="K41" s="20"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="33"/>
+      <c r="B42" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="K37" s="21"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="36"/>
-      <c r="B38" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="K38" s="21"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="36"/>
-      <c r="B39" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="21" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="K39" s="21"/>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="36"/>
-      <c r="B40" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="K40" s="23"/>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="36"/>
-      <c r="B41" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="K41" s="23"/>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="36"/>
-      <c r="B42" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="22"/>
-      <c r="D42" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="K42" s="23"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="K42" s="20"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="36"/>
-      <c r="B43" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="K43" s="23"/>
+      <c r="A43" s="33"/>
+      <c r="B43" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="K43" s="20"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="2" t="s">
@@ -3195,7 +3479,7 @@
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -3212,7 +3496,7 @@
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -3225,44 +3509,44 @@
     <row r="47" spans="1:11">
       <c r="A47" s="3"/>
       <c r="B47" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E48" s="8">
         <v>20</v>
@@ -3270,22 +3554,22 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K48" s="8"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="9"/>
       <c r="B49" s="10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E49" s="8">
         <v>20</v>
@@ -3293,43 +3577,43 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="K49" s="8"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="9"/>
       <c r="B50" s="10" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="K50" s="8"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="9"/>
       <c r="B51" s="10" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E51" s="8">
         <v>200</v>
@@ -3337,22 +3621,22 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="K51" s="8"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="35"/>
+      <c r="A52" s="32"/>
       <c r="B52" s="10" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E52" s="8">
         <v>20</v>
@@ -3360,17 +3644,17 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="K52" s="8"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
@@ -3385,153 +3669,153 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="31"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="28"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="B55" s="20" t="s">
+      <c r="A55" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="K55" s="20"/>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="33"/>
+      <c r="B56" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="K56" s="20"/>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="33"/>
+      <c r="B57" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" s="19"/>
+      <c r="D57" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="K57" s="20"/>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="33"/>
+      <c r="B58" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="19"/>
+      <c r="D58" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="K58" s="20"/>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="33"/>
+      <c r="B59" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" s="19"/>
+      <c r="D59" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="K59" s="20"/>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="33"/>
+      <c r="B60" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="K55" s="21"/>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="36"/>
-      <c r="B56" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="K56" s="21"/>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="36"/>
-      <c r="B57" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C57" s="20"/>
-      <c r="D57" s="21" t="s">
+      <c r="C60" s="19"/>
+      <c r="D60" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="21"/>
-      <c r="J57" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="K57" s="21"/>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="36"/>
-      <c r="B58" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C58" s="22"/>
-      <c r="D58" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="K58" s="23"/>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="36"/>
-      <c r="B59" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C59" s="22"/>
-      <c r="D59" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="K59" s="23"/>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="36"/>
-      <c r="B60" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C60" s="22"/>
-      <c r="D60" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="23"/>
-      <c r="J60" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="K60" s="23"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="K60" s="20"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="36"/>
-      <c r="B61" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C61" s="22"/>
-      <c r="D61" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23"/>
-      <c r="I61" s="23"/>
-      <c r="J61" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="K61" s="23"/>
+      <c r="A61" s="33"/>
+      <c r="B61" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" s="19"/>
+      <c r="D61" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="K61" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -3566,12 +3850,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B42" sqref="B42:K42"/>
     </sheetView>
   </sheetViews>
@@ -3596,7 +3880,7 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -3613,7 +3897,7 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -3626,44 +3910,44 @@
     <row r="3" s="1" customFormat="1" spans="1:11">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:11">
       <c r="A4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E4" s="8">
         <v>20</v>
@@ -3671,22 +3955,22 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K4" s="8"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:11">
       <c r="A5" s="9"/>
       <c r="B5" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E5" s="8">
         <v>20</v>
@@ -3694,72 +3978,72 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K5" s="8"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:11">
       <c r="A6" s="9"/>
       <c r="B6" s="10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" s="8">
         <v>4</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K6" s="8"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:11">
       <c r="A7" s="9"/>
       <c r="B7" s="10" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" s="8">
         <v>4</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K7" s="8"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:11">
-      <c r="A8" s="35"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="10" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" s="8">
         <v>200</v>
@@ -3767,17 +4051,17 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K8" s="8"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="53" customHeight="1" spans="1:11">
       <c r="A9" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -3792,153 +4076,153 @@
     </row>
     <row r="10" s="1" customFormat="1" spans="1:11">
       <c r="A10" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="31"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="28"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:11">
-      <c r="A11" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" s="21"/>
+      <c r="A11" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="20"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:11">
-      <c r="A12" s="36"/>
-      <c r="B12" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="K12" s="21"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="20"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:11">
-      <c r="A13" s="36"/>
-      <c r="B13" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21" t="s">
+      <c r="A13" s="33"/>
+      <c r="B13" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:11">
+      <c r="A14" s="33"/>
+      <c r="B14" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" s="20"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:11">
+      <c r="A15" s="33"/>
+      <c r="B15" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="20"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:11">
+      <c r="A16" s="33"/>
+      <c r="B16" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:11">
+      <c r="A17" s="33"/>
+      <c r="B17" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="K13" s="21"/>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:11">
-      <c r="A14" s="36"/>
-      <c r="B14" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" s="23"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:11">
-      <c r="A15" s="36"/>
-      <c r="B15" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="K15" s="23"/>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:11">
-      <c r="A16" s="36"/>
-      <c r="B16" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="K16" s="23"/>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:11">
-      <c r="A17" s="36"/>
-      <c r="B17" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="K17" s="23"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" s="20"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="2" t="s">
@@ -3947,7 +4231,7 @@
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -3964,7 +4248,7 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -3977,44 +4261,44 @@
     <row r="21" spans="1:11">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E22" s="8">
         <v>20</v>
@@ -4022,22 +4306,22 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K22" s="8"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="9"/>
       <c r="B23" s="8" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E23" s="8">
         <v>20</v>
@@ -4045,72 +4329,72 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="K23" s="8"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="9"/>
       <c r="B24" s="10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E24" s="8">
         <v>4</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K24" s="8"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="9"/>
       <c r="B25" s="10" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E25" s="8">
         <v>4</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K25" s="8"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="35"/>
+      <c r="A26" s="32"/>
       <c r="B26" s="10" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E26" s="8">
         <v>200</v>
@@ -4118,17 +4402,17 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K26" s="8"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -4143,153 +4427,153 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="14"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="31"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="28"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="K29" s="21"/>
+      <c r="A29" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="K29" s="20"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="36"/>
-      <c r="B30" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="K30" s="21"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="K30" s="20"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="36"/>
-      <c r="B31" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21" t="s">
+      <c r="A31" s="33"/>
+      <c r="B31" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="K31" s="20"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="33"/>
+      <c r="B32" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="20"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="K32" s="20"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="33"/>
+      <c r="B33" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="K33" s="20"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="33"/>
+      <c r="B34" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K34" s="20"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="33"/>
+      <c r="B35" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="K31" s="21"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="36"/>
-      <c r="B32" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="23"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="K32" s="23"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="36"/>
-      <c r="B33" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="K33" s="23"/>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="36"/>
-      <c r="B34" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="K34" s="23"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="36"/>
-      <c r="B35" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="K35" s="23"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="K35" s="20"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="2" t="s">
@@ -4298,7 +4582,7 @@
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -4315,7 +4599,7 @@
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -4328,44 +4612,44 @@
     <row r="39" spans="1:11">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E40" s="8">
         <v>20</v>
@@ -4373,22 +4657,22 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K40" s="8"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="9"/>
       <c r="B41" s="8" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E41" s="8">
         <v>20</v>
@@ -4396,17 +4680,17 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="K41" s="8"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -4421,33 +4705,33 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B43" s="13"/>
       <c r="C43" s="14"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="31"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="28"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
+      <c r="A44" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -4483,12 +4767,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33:K33"/>
     </sheetView>
   </sheetViews>
@@ -4513,7 +4797,7 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -4530,7 +4814,7 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -4543,44 +4827,44 @@
     <row r="3" s="1" customFormat="1" spans="1:11">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:11">
       <c r="A4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E4" s="8">
         <v>20</v>
@@ -4588,22 +4872,22 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K4" s="8"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:11">
       <c r="A5" s="9"/>
       <c r="B5" s="8" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E5" s="8">
         <v>1</v>
@@ -4611,67 +4895,67 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K5" s="8"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:11">
       <c r="A6" s="9"/>
       <c r="B6" s="10" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:11">
       <c r="A7" s="9"/>
       <c r="B7" s="10" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:11">
       <c r="A8" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -4686,189 +4970,189 @@
     </row>
     <row r="9" s="1" customFormat="1" spans="1:11">
       <c r="A9" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="31"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="28"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:11">
-      <c r="A10" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="K10" s="21"/>
+      <c r="A10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" s="20"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:11">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="21"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="20"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:11">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="K12" s="21"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="K12" s="20"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:11">
-      <c r="A13" s="19"/>
-      <c r="B13" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="K13" s="23"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="K13" s="20"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:11">
-      <c r="A14" s="19"/>
-      <c r="B14" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="K14" s="23"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="K14" s="20"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:11">
-      <c r="A15" s="19"/>
-      <c r="B15" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="K15" s="23"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="K15" s="20"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:11">
-      <c r="A16" s="19"/>
-      <c r="B16" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="K16" s="23"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="K16" s="20"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:11">
-      <c r="A17" s="19"/>
-      <c r="B17" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="K17" s="23"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="K17" s="20"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:11">
-      <c r="A18" s="25"/>
-      <c r="B18" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="K18" s="23"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="K18" s="20"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:11">
       <c r="A20" s="2" t="s">
@@ -4877,7 +5161,7 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -4894,7 +5178,7 @@
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -4907,44 +5191,44 @@
     <row r="22" s="1" customFormat="1" spans="1:11">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:11">
       <c r="A23" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E23" s="8">
         <v>20</v>
@@ -4952,22 +5236,22 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K23" s="8"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:11">
       <c r="A24" s="9"/>
       <c r="B24" s="8" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E24" s="8">
         <v>1</v>
@@ -4975,72 +5259,72 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K24" s="8"/>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:11">
       <c r="A25" s="9"/>
       <c r="B25" s="10" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:11">
       <c r="A26" s="9"/>
       <c r="B26" s="10" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:11">
       <c r="A27" s="9"/>
       <c r="B27" s="10" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E27" s="8">
         <v>4</v>
@@ -5048,22 +5332,22 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="K27" s="8"/>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:11">
       <c r="A28" s="9"/>
       <c r="B28" s="10" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="8" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E28" s="8">
         <v>11</v>
@@ -5071,84 +5355,84 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="K28" s="8"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:11">
       <c r="A29" s="9"/>
-      <c r="B29" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="33"/>
+      <c r="B29" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="30"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:11">
       <c r="A30" s="9"/>
-      <c r="B30" s="28" t="s">
-        <v>118</v>
+      <c r="B30" s="25" t="s">
+        <v>124</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E30" s="8">
         <v>4</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="K30" s="8"/>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:11">
       <c r="A31" s="9"/>
-      <c r="B31" s="29"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="10" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E31" s="8">
         <v>4</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="K31" s="8"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:11">
       <c r="A32" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -5163,227 +5447,227 @@
     </row>
     <row r="33" s="1" customFormat="1" spans="1:11">
       <c r="A33" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="14"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="31"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="28"/>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:11">
-      <c r="A34" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="K34" s="21"/>
+      <c r="A34" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="K34" s="20"/>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:11">
-      <c r="A35" s="19"/>
-      <c r="B35" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="K35" s="34"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="K35" s="31"/>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:11">
-      <c r="A36" s="19"/>
-      <c r="B36" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="K36" s="34"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="K36" s="31"/>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:11">
-      <c r="A37" s="19"/>
-      <c r="B37" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="K37" s="21"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K37" s="20"/>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:11">
-      <c r="A38" s="19"/>
-      <c r="B38" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="K38" s="21"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="19"/>
+      <c r="D38" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="K38" s="20"/>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:11">
-      <c r="A39" s="19"/>
-      <c r="B39" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" s="23"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="K39" s="23"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="20"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="K39" s="20"/>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:11">
-      <c r="A40" s="19"/>
-      <c r="B40" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="K40" s="23"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="K40" s="20"/>
     </row>
     <row r="41" s="1" customFormat="1" spans="1:11">
-      <c r="A41" s="19"/>
-      <c r="B41" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="K41" s="23"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="K41" s="20"/>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:11">
-      <c r="A42" s="19"/>
-      <c r="B42" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="22"/>
-      <c r="D42" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="K42" s="23"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="19"/>
+      <c r="D42" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="K42" s="20"/>
     </row>
     <row r="43" s="1" customFormat="1" spans="1:11">
-      <c r="A43" s="19"/>
-      <c r="B43" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="K43" s="23"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="K43" s="20"/>
     </row>
     <row r="44" s="1" customFormat="1" spans="1:11">
-      <c r="A44" s="25"/>
-      <c r="B44" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="C44" s="22"/>
-      <c r="D44" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="K44" s="23"/>
+      <c r="A44" s="22"/>
+      <c r="B44" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="D44" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="K44" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="22">
